--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value651.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value651.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357938210813716</v>
+        <v>1.197692513465881</v>
       </c>
       <c r="B1">
-        <v>2.201888153164534</v>
+        <v>2.31177830696106</v>
       </c>
       <c r="C1">
-        <v>2.629113917045986</v>
+        <v>3.381871461868286</v>
       </c>
       <c r="D1">
-        <v>3.026173449810402</v>
+        <v>3.397888660430908</v>
       </c>
       <c r="E1">
-        <v>2.500568731714562</v>
+        <v>1.140867352485657</v>
       </c>
     </row>
   </sheetData>
